--- a/testresults home.xlsx
+++ b/testresults home.xlsx
@@ -518,6 +518,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,15 +551,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,12 +560,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112:L117"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,55 +858,55 @@
       <c r="A1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="31" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="31" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="31" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
@@ -1055,55 +1055,55 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="31" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31" t="s">
+      <c r="G13" s="39"/>
+      <c r="H13" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="31" t="s">
+      <c r="I13" s="39"/>
+      <c r="J13" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
@@ -1252,98 +1252,98 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="22">
         <f>100/(C17/C$8)</f>
         <v>10.794701986754966</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="23">
         <f t="shared" ref="D18:L18" si="0">100/(D17/D$8)</f>
         <v>0.29281890907387242</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="22">
         <f t="shared" si="0"/>
         <v>0.29097461317616141</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="24">
         <f t="shared" si="0"/>
         <v>177.90281565301359</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="25">
         <f t="shared" si="0"/>
         <v>195.11785188496199</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="24">
         <f t="shared" si="0"/>
         <v>176.57902515353513</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="25">
         <f t="shared" si="0"/>
         <v>197.91450563110632</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="23">
         <f t="shared" si="0"/>
         <v>19.437652811735944</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="22">
         <f t="shared" si="0"/>
         <v>37.356452314735982</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="23">
         <f t="shared" si="0"/>
         <v>38.45620356530155</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
     </row>
     <row r="21" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
     </row>
     <row r="22" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="31" t="s">
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="31" t="s">
+      <c r="G22" s="39"/>
+      <c r="H22" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="31" t="s">
+      <c r="I22" s="39"/>
+      <c r="J22" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="39"/>
     </row>
     <row r="23" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
@@ -1495,98 +1495,98 @@
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="22">
         <f>100/(C26/C$8)</f>
         <v>10.560414642047295</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="23">
         <f t="shared" ref="D27:L27" si="1">100/(D26/D$8)</f>
         <v>0.1758891194990678</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="22">
         <f t="shared" si="1"/>
         <v>0.18690612299357362</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="24">
         <f t="shared" si="1"/>
         <v>135.70639332975855</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="25">
         <f t="shared" si="1"/>
         <v>138.2832085514018</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="24">
         <f t="shared" si="1"/>
         <v>131.60443517734757</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="25">
         <f t="shared" si="1"/>
         <v>117.25362927177065</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="23">
         <f t="shared" si="1"/>
         <v>14.627414903403865</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="22">
         <f t="shared" si="1"/>
         <v>22.415143603133163</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="23">
         <f t="shared" si="1"/>
         <v>19.842368505069523</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
     </row>
     <row r="30" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
     </row>
     <row r="31" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="31" t="s">
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="31" t="s">
+      <c r="G31" s="39"/>
+      <c r="H31" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="31" t="s">
+      <c r="I31" s="39"/>
+      <c r="J31" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="33"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="39"/>
     </row>
     <row r="32" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
@@ -1738,43 +1738,43 @@
       <c r="B36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="22">
         <f>100/(C35/C$8)</f>
         <v>11.307665626083939</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="23">
         <f t="shared" ref="D36:L36" si="2">100/(D35/D$8)</f>
         <v>0.30896619909781875</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="22">
         <f t="shared" si="2"/>
         <v>0.28462813831422307</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="24">
         <f t="shared" si="2"/>
         <v>160.98183087073912</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="25">
         <f t="shared" si="2"/>
         <v>160.13070098239459</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="24">
         <f t="shared" si="2"/>
         <v>161.42112310236215</v>
       </c>
-      <c r="I36" s="37">
+      <c r="I36" s="25">
         <f t="shared" si="2"/>
         <v>162.36153461573124</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="23">
         <f t="shared" si="2"/>
         <v>19.347773180822585</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36" s="22">
         <f t="shared" si="2"/>
         <v>38.575977806431446</v>
       </c>
-      <c r="L36" s="35">
+      <c r="L36" s="23">
         <f t="shared" si="2"/>
         <v>39.919675857860568</v>
       </c>
@@ -1783,35 +1783,35 @@
       <c r="B37"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="27"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="28" t="s">
@@ -1894,7 +1894,7 @@
         <v>101467.70209999999</v>
       </c>
       <c r="J42" s="13">
-        <v>4.5199999999999997E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="K42" s="5">
         <v>2.0716000000000001</v>
@@ -1929,7 +1929,7 @@
         <v>102228.44259999999</v>
       </c>
       <c r="J43" s="14">
-        <v>22.351700000000001</v>
+        <v>0.2492</v>
       </c>
       <c r="K43" s="4">
         <v>2.2248000000000001</v>
@@ -1964,7 +1964,7 @@
         <v>101840.1939</v>
       </c>
       <c r="J44" s="18">
-        <v>2.3769</v>
+        <v>0.13109999999999999</v>
       </c>
       <c r="K44" s="3">
         <v>2.1581999999999999</v>
@@ -1977,43 +1977,43 @@
       <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="22">
         <f>100/(C44/C$8)</f>
         <v>14.885844748858446</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="23">
         <f t="shared" ref="D45:L45" si="3">100/(D44/D$8)</f>
         <v>55.803571428571438</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="25">
         <f t="shared" si="3"/>
         <v>235.09177849760914</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="24">
         <f t="shared" si="3"/>
         <v>163.7010572054366</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="25">
         <f t="shared" si="3"/>
         <v>160.20596978759201</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="24">
         <f t="shared" si="3"/>
         <v>159.47537648851554</v>
       </c>
-      <c r="I45" s="37">
+      <c r="I45" s="25">
         <f t="shared" si="3"/>
         <v>162.35640710028144</v>
       </c>
-      <c r="J45" s="35">
+      <c r="J45" s="23">
         <f t="shared" si="3"/>
-        <v>3.3446926669190962</v>
-      </c>
-      <c r="K45" s="37">
+        <v>60.640732265446232</v>
+      </c>
+      <c r="K45" s="25">
         <f t="shared" si="3"/>
         <v>182.9811880270596</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="24">
         <f t="shared" si="3"/>
         <v>197.53608608718235</v>
       </c>
@@ -2022,37 +2022,37 @@
       <c r="A46"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="33"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="27"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="36"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49"/>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="28" t="s">
@@ -2220,43 +2220,43 @@
       <c r="B54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="34">
+      <c r="C54" s="22">
         <f>100/(C53/C$8)</f>
         <v>24.274013402829485</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="23">
         <f t="shared" ref="D54:L54" si="4">100/(D53/D$8)</f>
         <v>0.41026650912432716</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="22">
         <f t="shared" si="4"/>
         <v>0.43138816641772898</v>
       </c>
-      <c r="F54" s="36">
+      <c r="F54" s="24">
         <f t="shared" si="4"/>
         <v>189.51588167376187</v>
       </c>
-      <c r="G54" s="37">
+      <c r="G54" s="25">
         <f t="shared" si="4"/>
         <v>232.24196797874936</v>
       </c>
-      <c r="H54" s="36">
+      <c r="H54" s="24">
         <f t="shared" si="4"/>
         <v>187.65327918608102</v>
       </c>
-      <c r="I54" s="37">
+      <c r="I54" s="25">
         <f t="shared" si="4"/>
         <v>236.42038856967</v>
       </c>
-      <c r="J54" s="35">
+      <c r="J54" s="23">
         <f t="shared" si="4"/>
         <v>27.55632582322357</v>
       </c>
-      <c r="K54" s="34">
+      <c r="K54" s="22">
         <f t="shared" si="4"/>
         <v>53.189397408614603</v>
       </c>
-      <c r="L54" s="35">
+      <c r="L54" s="23">
         <f t="shared" si="4"/>
         <v>57.528869039007915</v>
       </c>
@@ -2265,37 +2265,37 @@
       <c r="A55"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="33"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="27"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="36"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58"/>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -2463,43 +2463,43 @@
       <c r="B63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="34">
+      <c r="C63" s="22">
         <f>100/(C62/C$8)</f>
         <v>13.831141281289774</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="23">
         <f t="shared" ref="D63:L63" si="5">100/(D62/D$8)</f>
         <v>0.26007802340702213</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="22">
         <f t="shared" si="5"/>
         <v>0.28965070303153545</v>
       </c>
-      <c r="F63" s="36">
+      <c r="F63" s="24">
         <f t="shared" si="5"/>
         <v>131.67265009364209</v>
       </c>
-      <c r="G63" s="37">
+      <c r="G63" s="25">
         <f t="shared" si="5"/>
         <v>157.79647426932647</v>
       </c>
-      <c r="H63" s="36">
+      <c r="H63" s="24">
         <f t="shared" si="5"/>
         <v>134.1401310507149</v>
       </c>
-      <c r="I63" s="37">
+      <c r="I63" s="25">
         <f t="shared" si="5"/>
         <v>156.77603926378458</v>
       </c>
-      <c r="J63" s="35">
+      <c r="J63" s="23">
         <f t="shared" si="5"/>
         <v>15.356384006181186</v>
       </c>
-      <c r="K63" s="34">
+      <c r="K63" s="22">
         <f t="shared" si="5"/>
         <v>29.759832402655636</v>
       </c>
-      <c r="L63" s="35">
+      <c r="L63" s="23">
         <f t="shared" si="5"/>
         <v>41.625811505404648</v>
       </c>
@@ -2508,37 +2508,37 @@
       <c r="A64"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="33"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="27"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="36"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67"/>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -2706,43 +2706,43 @@
       <c r="B72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="34">
+      <c r="C72" s="22">
         <f>100/(C71/C$8)</f>
         <v>8.3290751149718947</v>
       </c>
-      <c r="D72" s="35">
+      <c r="D72" s="23">
         <f t="shared" ref="D72:L72" si="6">100/(D71/D$8)</f>
         <v>0.42572031877937472</v>
       </c>
-      <c r="E72" s="34">
+      <c r="E72" s="22">
         <f t="shared" si="6"/>
         <v>0.43297336024940358</v>
       </c>
-      <c r="F72" s="36">
+      <c r="F72" s="24">
         <f t="shared" si="6"/>
         <v>201.45323724096315</v>
       </c>
-      <c r="G72" s="37">
+      <c r="G72" s="25">
         <f t="shared" si="6"/>
         <v>231.69503331095686</v>
       </c>
-      <c r="H72" s="36">
+      <c r="H72" s="24">
         <f t="shared" si="6"/>
         <v>199.32588346291638</v>
       </c>
-      <c r="I72" s="37">
+      <c r="I72" s="25">
         <f t="shared" si="6"/>
         <v>273.06597746563017</v>
       </c>
-      <c r="J72" s="35">
+      <c r="J72" s="23">
         <f t="shared" si="6"/>
         <v>32.435740514075889</v>
       </c>
-      <c r="K72" s="34">
+      <c r="K72" s="22">
         <f t="shared" si="6"/>
         <v>54.15141168565826</v>
       </c>
-      <c r="L72" s="35">
+      <c r="L72" s="23">
         <f t="shared" si="6"/>
         <v>57.522971788727652</v>
       </c>
@@ -2752,37 +2752,37 @@
       <c r="B73"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="33"/>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="27"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="36"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76"/>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C76" s="28" t="s">
@@ -2950,43 +2950,43 @@
       <c r="B81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="34">
+      <c r="C81" s="22">
         <f>100/(C80/C$8)</f>
         <v>49.468892261001514</v>
       </c>
-      <c r="D81" s="35">
+      <c r="D81" s="23">
         <f t="shared" ref="D81:L81" si="7">100/(D80/D$8)</f>
         <v>46.382189239332092</v>
       </c>
-      <c r="E81" s="37">
+      <c r="E81" s="25">
         <f t="shared" si="7"/>
         <v>316.07216922438818</v>
       </c>
-      <c r="F81" s="36">
+      <c r="F81" s="24">
         <f t="shared" si="7"/>
         <v>236.19105968312059</v>
       </c>
-      <c r="G81" s="37">
+      <c r="G81" s="25">
         <f t="shared" si="7"/>
         <v>290.64270267200095</v>
       </c>
-      <c r="H81" s="36">
+      <c r="H81" s="24">
         <f t="shared" si="7"/>
         <v>232.38566999718509</v>
       </c>
-      <c r="I81" s="37">
+      <c r="I81" s="25">
         <f t="shared" si="7"/>
         <v>293.38773020008227</v>
       </c>
-      <c r="J81" s="35">
+      <c r="J81" s="23">
         <f t="shared" si="7"/>
         <v>67.430025445292614</v>
       </c>
-      <c r="K81" s="37">
+      <c r="K81" s="25">
         <f t="shared" si="7"/>
         <v>198.93708125535235</v>
       </c>
-      <c r="L81" s="36">
+      <c r="L81" s="24">
         <f t="shared" si="7"/>
         <v>259.53638048292157</v>
       </c>
@@ -2995,37 +2995,37 @@
       <c r="A82"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="33"/>
     </row>
     <row r="84" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="27"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="36"/>
     </row>
     <row r="85" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85"/>
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C85" s="28" t="s">
@@ -3193,43 +3193,43 @@
       <c r="B90" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="34">
+      <c r="C90" s="22">
         <f>100/(C89/C$8)</f>
         <v>24.419475655430709</v>
       </c>
-      <c r="D90" s="35">
+      <c r="D90" s="23">
         <f t="shared" ref="D90:L90" si="8">100/(D89/D$8)</f>
         <v>0.45019898795267516</v>
       </c>
-      <c r="E90" s="34">
+      <c r="E90" s="22">
         <f t="shared" si="8"/>
         <v>0.46944192130833873</v>
       </c>
-      <c r="F90" s="36">
+      <c r="F90" s="24">
         <f t="shared" si="8"/>
         <v>267.6732894165811</v>
       </c>
-      <c r="G90" s="37">
+      <c r="G90" s="25">
         <f t="shared" si="8"/>
         <v>379.19188956204903</v>
       </c>
-      <c r="H90" s="36">
+      <c r="H90" s="24">
         <f t="shared" si="8"/>
         <v>268.76072963973081</v>
       </c>
-      <c r="I90" s="37">
+      <c r="I90" s="25">
         <f t="shared" si="8"/>
         <v>382.46770629267348</v>
       </c>
-      <c r="J90" s="35">
+      <c r="J90" s="23">
         <f t="shared" si="8"/>
         <v>27.096114519427402</v>
       </c>
-      <c r="K90" s="34">
+      <c r="K90" s="22">
         <f t="shared" si="8"/>
         <v>60.458672055604033</v>
       </c>
-      <c r="L90" s="35">
+      <c r="L90" s="23">
         <f t="shared" si="8"/>
         <v>63.184334924388985</v>
       </c>
@@ -3238,37 +3238,37 @@
       <c r="A91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="33"/>
     </row>
     <row r="93" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="27"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="36"/>
     </row>
     <row r="94" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94"/>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C94" s="28" t="s">
@@ -3436,43 +3436,43 @@
       <c r="B99" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C99" s="34">
+      <c r="C99" s="22">
         <f>100/(C98/C$8)</f>
         <v>7.1601142104107174</v>
       </c>
-      <c r="D99" s="35">
+      <c r="D99" s="23">
         <f t="shared" ref="D99:L99" si="9">100/(D98/D$8)</f>
         <v>0.33447053314602987</v>
       </c>
-      <c r="E99" s="34">
+      <c r="E99" s="22">
         <f t="shared" si="9"/>
         <v>0.37878223041372039</v>
       </c>
-      <c r="F99" s="36">
+      <c r="F99" s="24">
         <f t="shared" si="9"/>
         <v>193.24903696376649</v>
       </c>
-      <c r="G99" s="37">
+      <c r="G99" s="25">
         <f t="shared" si="9"/>
         <v>250.87558769033632</v>
       </c>
-      <c r="H99" s="36">
+      <c r="H99" s="24">
         <f t="shared" si="9"/>
         <v>188.05640372357729</v>
       </c>
-      <c r="I99" s="37">
+      <c r="I99" s="25">
         <f t="shared" si="9"/>
         <v>251.29363528260879</v>
       </c>
-      <c r="J99" s="35">
+      <c r="J99" s="23">
         <f t="shared" si="9"/>
         <v>27.254028111073019</v>
       </c>
-      <c r="K99" s="34">
+      <c r="K99" s="22">
         <f t="shared" si="9"/>
         <v>41.707327376803327</v>
       </c>
-      <c r="L99" s="35">
+      <c r="L99" s="23">
         <f t="shared" si="9"/>
         <v>56.952222388118273</v>
       </c>
@@ -3481,37 +3481,37 @@
       <c r="A100"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="24"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="33"/>
     </row>
     <row r="102" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
-      <c r="L102" s="27"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="36"/>
     </row>
     <row r="103" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103"/>
-      <c r="B103" s="39" t="s">
+      <c r="B103" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C103" s="28" t="s">
@@ -3679,43 +3679,43 @@
       <c r="B108" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="34">
+      <c r="C108" s="22">
         <f>100/(C107/C$8)</f>
         <v>16.10671936758893</v>
       </c>
-      <c r="D108" s="35">
+      <c r="D108" s="23">
         <f t="shared" ref="D108:L108" si="10">100/(D107/D$8)</f>
         <v>0.52158310905259642</v>
       </c>
-      <c r="E108" s="34">
+      <c r="E108" s="22">
         <f t="shared" si="10"/>
         <v>0.51969175162819248</v>
       </c>
-      <c r="F108" s="36">
+      <c r="F108" s="24">
         <f t="shared" si="10"/>
         <v>369.53377740080322</v>
       </c>
-      <c r="G108" s="37">
+      <c r="G108" s="25">
         <f t="shared" si="10"/>
         <v>370.83001614721417</v>
       </c>
-      <c r="H108" s="36">
+      <c r="H108" s="24">
         <f t="shared" si="10"/>
         <v>353.4886436062344</v>
       </c>
-      <c r="I108" s="37">
+      <c r="I108" s="25">
         <f t="shared" si="10"/>
         <v>368.77761685100927</v>
       </c>
-      <c r="J108" s="35">
+      <c r="J108" s="23">
         <f t="shared" si="10"/>
         <v>26.930894308943088</v>
       </c>
-      <c r="K108" s="34">
+      <c r="K108" s="22">
         <f t="shared" si="10"/>
         <v>62.348631964508435</v>
       </c>
-      <c r="L108" s="35">
+      <c r="L108" s="23">
         <f t="shared" si="10"/>
         <v>63.042239751382844</v>
       </c>
@@ -3725,37 +3725,37 @@
       <c r="B109"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="24"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="33"/>
     </row>
     <row r="111" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="26"/>
-      <c r="L111" s="27"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="35"/>
+      <c r="L111" s="36"/>
     </row>
     <row r="112" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112"/>
-      <c r="B112" s="39" t="s">
+      <c r="B112" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C112" s="28" t="s">
@@ -3923,43 +3923,43 @@
       <c r="B117" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="34">
+      <c r="C117" s="22">
         <f>100/(C116/C$8)</f>
         <v>77.251184834123222</v>
       </c>
-      <c r="D117" s="35">
+      <c r="D117" s="23">
         <f t="shared" ref="D117:L117" si="11">100/(D116/D$8)</f>
         <v>39.308176100628927</v>
       </c>
-      <c r="E117" s="37">
+      <c r="E117" s="25">
         <f t="shared" si="11"/>
         <v>245.70369176205062</v>
       </c>
-      <c r="F117" s="36">
+      <c r="F117" s="24">
         <f t="shared" si="11"/>
         <v>404.69585113684644</v>
       </c>
-      <c r="G117" s="37">
+      <c r="G117" s="25">
         <f t="shared" si="11"/>
         <v>387.21719092755598</v>
       </c>
-      <c r="H117" s="36">
+      <c r="H117" s="24">
         <f t="shared" si="11"/>
         <v>372.73939476882111</v>
       </c>
-      <c r="I117" s="37">
+      <c r="I117" s="25">
         <f t="shared" si="11"/>
         <v>397.7816433064732</v>
       </c>
-      <c r="J117" s="35">
+      <c r="J117" s="23">
         <f t="shared" si="11"/>
         <v>77.184466019417485</v>
       </c>
-      <c r="K117" s="37">
+      <c r="K117" s="25">
         <f t="shared" si="11"/>
         <v>270.80161832270454</v>
       </c>
-      <c r="L117" s="36">
+      <c r="L117" s="24">
         <f t="shared" si="11"/>
         <v>339.37770980219284</v>
       </c>
@@ -3996,30 +3996,31 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="B38:L39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="B29:L30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="B20:L21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B11:L12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="B92:L93"/>
     <mergeCell ref="B101:L102"/>
     <mergeCell ref="B110:L111"/>
@@ -4036,31 +4037,30 @@
     <mergeCell ref="H85:I85"/>
     <mergeCell ref="F85:G85"/>
     <mergeCell ref="C85:E85"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B11:L12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B20:L21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B29:L30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="B38:L39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C49:E49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
